--- a/wzrv/expdata/2012.xlsx
+++ b/wzrv/expdata/2012.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>pp</t>
   </si>
   <si>
-    <t xml:space="preserve">CMS(e) </t>
+    <t>CMS(e)(2011)</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/wzrv/expdata/2012.xlsx
+++ b/wzrv/expdata/2012.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE61EFB-BFA7-9348-A0A2-2FDE5F4F6002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
+    <workbookView xWindow="36640" yWindow="4060" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>cms</t>
   </si>
@@ -47,9 +48,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -75,19 +73,39 @@
   </si>
   <si>
     <t>CMS(e)(2011)</t>
+  </si>
+  <si>
+    <t>syst0_c</t>
+  </si>
+  <si>
+    <t>syst1_c</t>
+  </si>
+  <si>
+    <t>syst2_c</t>
+  </si>
+  <si>
+    <t>syst3_c</t>
+  </si>
+  <si>
+    <t>syst_tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,10 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,22 +415,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1"/>
-    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" customWidth="1"/>
     <col min="1013" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,22 +453,34 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -461,7 +494,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>0.10199999999999999</v>
@@ -473,19 +506,31 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="N2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -499,7 +544,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>0.111</v>
@@ -511,19 +556,31 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -537,7 +594,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>0.11600000000000001</v>
@@ -549,19 +606,31 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="N4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -575,7 +644,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>0.123</v>
@@ -587,19 +656,31 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -613,7 +694,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>0.13300000000000001</v>
@@ -625,19 +706,31 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1.9E-3</v>
+      </c>
+      <c r="N6">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="O6">
+        <v>1E-4</v>
+      </c>
+      <c r="P6">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -651,7 +744,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>0.13600000000000001</v>
@@ -663,19 +756,31 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="N7">
+        <v>1E-3</v>
+      </c>
+      <c r="O7">
+        <v>1E-4</v>
+      </c>
+      <c r="P7">
+        <v>4.9000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -689,7 +794,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>0.156</v>
@@ -701,19 +806,31 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="N8">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O8">
+        <v>1E-4</v>
+      </c>
+      <c r="P8">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
@@ -727,7 +844,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1">
         <v>0.16600000000000001</v>
@@ -739,19 +856,31 @@
         <v>0.01</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="N9">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O9">
+        <v>1E-4</v>
+      </c>
+      <c r="P9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7000</v>
       </c>
@@ -765,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
         <v>0.19700000000000001</v>
@@ -777,19 +906,31 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>2E-3</v>
+      </c>
+      <c r="N10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="O10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P10">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7000</v>
       </c>
@@ -803,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>0.224</v>
@@ -815,19 +956,31 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>2E-3</v>
+      </c>
+      <c r="N11">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="O11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -841,7 +994,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>0.21</v>
@@ -853,16 +1006,28 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>16</v>
+      <c r="M12">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N12">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="O12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P12">
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2012.xlsx
+++ b/wzrv/expdata/2012.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE61EFB-BFA7-9348-A0A2-2FDE5F4F6002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5497FB8-D81F-974D-A03A-93947A764EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36640" yWindow="4060" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,13 +81,13 @@
     <t>syst1_c</t>
   </si>
   <si>
-    <t>syst2_c</t>
-  </si>
-  <si>
-    <t>syst3_c</t>
-  </si>
-  <si>
     <t>syst_tot</t>
+  </si>
+  <si>
+    <t>syst3_u</t>
+  </si>
+  <si>
+    <t>syst2_u</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -474,7 +474,7 @@
         <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>19</v>

--- a/wzrv/expdata/2012.xlsx
+++ b/wzrv/expdata/2012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5497FB8-D81F-974D-A03A-93947A764EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00363FA7-AAAF-264F-8CE9-C41553E40FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36640" yWindow="4060" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>cms</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>syst2_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -416,21 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" customWidth="1"/>
-    <col min="1013" max="1024" width="10.5" customWidth="1"/>
+    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1"/>
+    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1014" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,43 +447,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7000</v>
       </c>
@@ -493,44 +499,47 @@
       <c r="D2" s="1">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1.8E-3</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
       </c>
@@ -543,44 +552,47 @@
       <c r="D3" s="1">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.111</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7000</v>
       </c>
@@ -593,44 +605,47 @@
       <c r="D4" s="1">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7000</v>
       </c>
@@ -643,44 +658,47 @@
       <c r="D5" s="1">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.123</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7000</v>
       </c>
@@ -693,44 +711,47 @@
       <c r="D6" s="1">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.9E-3</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1E-4</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7000</v>
       </c>
@@ -743,44 +764,47 @@
       <c r="D7" s="1">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1E-3</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1E-4</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>4.9000000000000007E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -793,44 +817,47 @@
       <c r="D8" s="1">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.156</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1E-4</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
@@ -843,44 +870,47 @@
       <c r="D9" s="1">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.01</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1E-4</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7000</v>
       </c>
@@ -893,44 +923,47 @@
       <c r="D10" s="1">
         <v>35</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.19700000000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2E-3</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7000</v>
       </c>
@@ -943,44 +976,47 @@
       <c r="D11" s="1">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.224</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2E-3</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -993,40 +1029,43 @@
       <c r="D12" s="1">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.21</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>

--- a/wzrv/expdata/2012.xlsx
+++ b/wzrv/expdata/2012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00363FA7-AAAF-264F-8CE9-C41553E40FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ABD525-C3B2-C849-921C-645A2935A527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36640" yWindow="4060" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -553,7 +553,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -606,7 +606,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -659,7 +659,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -765,7 +765,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -818,7 +818,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -871,7 +871,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -924,7 +924,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -977,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -1030,7 +1030,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
